--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_001.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_001.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295006AA2.01) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295004AK2.03) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) DC electrical loads</t>
-  </si>
-  <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(295038EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
-  </si>
-  <si>
-    <t>(295023AA1.06) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Nuclear instrumentation</t>
-  </si>
-  <si>
-    <t>(295016AA2.07) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295021AK2.04) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
-  </si>
-  <si>
-    <t>(295037EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Reactor water level effects on reactor power</t>
-  </si>
-  <si>
-    <t>(295031EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Control rod drive hydraulic system</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EK2.04) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems.</t>
-  </si>
-  <si>
-    <t>(295018AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Placing the standby heat exchanger in service</t>
-  </si>
-  <si>
-    <t>(295025EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Decay heat</t>
-  </si>
-  <si>
-    <t>(295001AA1.01) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Recirculation system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(295020AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.5 / 45.6) Suppression chamber pressure response</t>
-  </si>
-  <si>
-    <t>(295032EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295033EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) SGTS/FRVS </t>
-  </si>
-  <si>
-    <t>(295029EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water level</t>
-  </si>
-  <si>
-    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295012AK2.02) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell cooling</t>
-  </si>
-  <si>
-    <t>(262001K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(261000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Offsite radioactive release limits</t>
-  </si>
-  <si>
-    <t>(209001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment</t>
-  </si>
-  <si>
-    <t>(215004K4.05) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Alarm seal-in</t>
+    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
+  </si>
+  <si>
+    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
+  </si>
+  <si>
+    <t>(295023AK2.07) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295006AA1.04) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295005AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Core thermal limits</t>
+  </si>
+  <si>
+    <t>(295027EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295030EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295038EK2.09) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Post\u2011accident sample system </t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295018AA1.07) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(295026EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Primary containment integrity</t>
+  </si>
+  <si>
+    <t>(295024EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Containment venting (Mark III)</t>
+  </si>
+  <si>
+    <t>(295021AA2.05) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor vessel metal temperature</t>
+  </si>
+  <si>
+    <t>(295001AK2.04) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
+  </si>
+  <si>
+    <t>(295016AA1.10) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295025EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Low-low set initiation</t>
+  </si>
+  <si>
+    <t>(295037EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Standby liquid control system tank level</t>
+  </si>
+  <si>
+    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295017AA1.02) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) Off-gas system</t>
+  </si>
+  <si>
+    <t>(295008AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Containment integrity</t>
+  </si>
+  <si>
+    <t>(295032EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.5 / 45.6) Isolating affected systems</t>
+  </si>
+  <si>
+    <t>(295009AA2.01) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295034EK2.01) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) Process radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(203000A3.07) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Loop selection</t>
+  </si>
+  <si>
+    <t>(259002K4.08) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) TDRFP speed control</t>
+  </si>
+  <si>
+    <t>(205000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Decay heat removal</t>
+  </si>
+  <si>
+    <t>(215004K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(218000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) Pneumatic supply to ADS valves</t>
+  </si>
+  <si>
+    <t>(264000K3.04) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Bus frequency/voltage</t>
+  </si>
+  <si>
+    <t>(212000A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(209001K2.03) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
+  </si>
+  <si>
+    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
   </si>
   <si>
     <t>(211000A4.02) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SLCS control switch</t>
   </si>
   <si>
-    <t>(212000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Main turbine generator and auxiliaries systems</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(510000K2.01) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system pumps (Class 1E)</t>
-  </si>
-  <si>
-    <t>(264000A2.12) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
+    <t>(261000A3.04) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) System temperature</t>
+  </si>
+  <si>
+    <t>(215003K4.05) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Changing detector position</t>
+  </si>
+  <si>
+    <t>(209002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Indications of pump cavitation</t>
+  </si>
+  <si>
+    <t>(239002K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(262002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(400000K3.07) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(215005A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) Control rod block status</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (291001K1.12) VALVES (CFR: 41.3) Reason for using a globe valve versus a gate valve for throttling</t>
+  </si>
+  <si>
+    <t>(263000K2.01) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Operationally significant DC loads</t>
+  </si>
+  <si>
+    <t>(510000A2.05) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/traveling screen failure</t>
+  </si>
+  <si>
+    <t>(223002A4.08) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Group isolations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(203000A3.08) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) System initiation sequence </t>
+  </si>
+  <si>
+    <t>(259002K4.11) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Differential pressure control</t>
   </si>
   <si>
     <t>(205000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Valve operation</t>
   </si>
   <si>
-    <t>(300000A3.04) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Automatic isolation</t>
-  </si>
-  <si>
-    <t>(215003K3.04) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power indication</t>
-  </si>
-  <si>
-    <t>(215005A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) APRM (gain adjustment factor)</t>
-  </si>
-  <si>
-    <t>(259002K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency generator(s): FWCI</t>
-  </si>
-  <si>
-    <t>(263000K4.05) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Coping time</t>
-  </si>
-  <si>
-    <t>(203000A4.15) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Room coolers</t>
-  </si>
-  <si>
-    <t>(262002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (291008K1.05) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Function of thermal overload protection device</t>
-  </si>
-  <si>
-    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
-  </si>
-  <si>
-    <t>(217000A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of instrument air systems</t>
-  </si>
-  <si>
-    <t>(223002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Secondary containment integrity</t>
-  </si>
-  <si>
-    <t>(400000A3.03) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Spent fuel pool cooling</t>
-  </si>
-  <si>
-    <t>(262001K3.05) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Qualified offsite power sources</t>
-  </si>
-  <si>
-    <t>(261000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) System flow</t>
-  </si>
-  <si>
-    <t>(209001K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(215004K4.02) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor SCRAM signals</t>
-  </si>
-  <si>
-    <t>(241000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.5 / 45.3) Accumulator operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(201005A3.03) Ability to monitor automatic operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.7 / 45.7) Verification of proper functioning/operability </t>
-  </si>
-  <si>
-    <t>(290001K3.06) Knowledge of the effect that a loss or malfunction of the (SF5 SC) SECONDARY CONTAINMENT will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Secondary containment temperature</t>
-  </si>
-  <si>
-    <t>(271000A1.15) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.5 / 45.3 / 45.5) Steam supply pressures</t>
-  </si>
-  <si>
-    <t>(223001K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) SRVs</t>
-  </si>
-  <si>
-    <t>(204000K4.02) Knowledge of (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Piping overpressurization protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239001A4.02) Ability to manually operate and/or monitor the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Main steam line drain valves </t>
-  </si>
-  <si>
-    <t>(202002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.7 / 45.7) DC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(216000) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(233000K2.01) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP Knowledge of electrical power supplies to the following: (CFR: 41.7) Fuel pool cooling pumps</t>
-  </si>
-  <si>
-    <t>(288000A2.03) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of coolant accident</t>
-  </si>
-  <si>
-    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+    <t>(215004K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(226001A2.05) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC electrical failures</t>
+  </si>
+  <si>
+    <t>(259001A4.04) Ability to manually operate and/or monitor the (SF2 FWS) FEEDWATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System valves</t>
+  </si>
+  <si>
+    <t>(288000A3.02) Ability to monitor automatic operation of the (SF9 PVS) PLANT VENTILATION SYSTEMS including: (CFR: 41.7 / 45.7) Differential pressure control</t>
+  </si>
+  <si>
+    <t>(510001K4.01) Knowledge of (SF8 CWS*) CIRCULATING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic valve alignments</t>
+  </si>
+  <si>
+    <t>(234000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FH) FUEL HANDLING: (CFR: 41.5 / 45.3) FH equipment interlocks</t>
+  </si>
+  <si>
+    <t>(201003K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and the following systems: (CFR: 41.1 to 41.10 / 45.1 to 45.8) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(268000K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 RW) RADWASTE SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Secondary containment drain sumps</t>
+  </si>
+  <si>
+    <t>(256000K3.19) Knowledge of the effect that a loss or malfunction of the (SF2 CDS) CONDENSATE SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Hydrogen water chemistry system</t>
+  </si>
+  <si>
+    <t>(233000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.5 / 45.5) Fuel pool clarity</t>
+  </si>
+  <si>
+    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239001K2.02) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Main steam line shutoff valves</t>
+  </si>
+  <si>
+    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292006K1.06) FISSION PRODUCT POISONS (CFR: 41.1) Describe the following processes and state their effect on reactor operations: --Transient xenon</t>
+  </si>
+  <si>
+    <t>(292005K1.10) CONTROL RODS (CFR: 41.1) State the purpose of flux shaping</t>
+  </si>
+  <si>
+    <t>(292004K1.03) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain resonance absorption</t>
+  </si>
+  <si>
+    <t>(293008K1.26) THERMAL HYDRAULICS (CFR: 41.14) (RECIRCULATION SYSTEM) Explain the jet pump operating principle</t>
+  </si>
+  <si>
+    <t>(293010K1.02) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the definition of nil-ductility transition temperature</t>
+  </si>
+  <si>
+    <t>(293009K1.24) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the effects of pressure on critical power</t>
+  </si>
+  <si>
+    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AA2.02) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Fuel pool level</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295006AA2.03) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295007AA2.01) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295012AA2.04) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) System/component operating limitations</t>
+  </si>
+  <si>
+    <t>(218000A2.02) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(212000A2.01) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) RPS motor-generator set failure</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209001A2.08) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(201005A2.08) Ability to (a) predict the impacts of the following on the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6 / 45.8) LPRM upscale/downscale</t>
+  </si>
+  <si>
+    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
   </si>
   <si>
     <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292005K1.10) CONTROL RODS (CFR: 41.1) State the purpose of flux shaping</t>
-  </si>
-  <si>
-    <t>(292003K1.06) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the effect of delayed neutrons on reactor period</t>
-  </si>
-  <si>
-    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
-  </si>
-  <si>
-    <t>(293008K1.36) THERMAL HYDRAULICS (CFR: 41.14) (NATURAL CIRCULATION) Describe means by which the operator can determine if natural circulation flow exists</t>
-  </si>
-  <si>
-    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
-  </si>
-  <si>
-    <t>(293007K1.12) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Define percent reactor power</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295030EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) </t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(600000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit of long-term-breathing air system for control room</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295023AA2.02) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Fuel pool level</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295009AA2.03) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water cleanup blowdown rate</t>
-  </si>
-  <si>
-    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(212000A2.19) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Partial RPS actuation</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(510000A2.05) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/traveling screen failure</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(272000A2.06) Ability to (a) predict the impacts of the following on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Downscale trips</t>
-  </si>
-  <si>
-    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(259001A2.04) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of extraction steam</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
+    <t>K2</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
+    <t>A1</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>A3</t>
   </si>
   <si>
     <t>K4</t>
   </si>
   <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>295006</t>
   </si>
   <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295004</t>
+    <t>295038</t>
   </si>
   <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295023</t>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295019</t>
   </si>
   <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>700000</t>
+    <t>295025</t>
   </si>
   <si>
     <t>295037</t>
   </si>
   <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295020</t>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295008</t>
   </si>
   <si>
     <t>295032</t>
   </si>
   <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295010</t>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295002</t>
   </si>
   <si>
     <t>295012</t>
   </si>
   <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>241000</t>
+    <t>239003</t>
   </si>
   <si>
     <t>201005</t>
   </si>
   <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>259001</t>
+    <t>290002</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D77" t="s">
         <v>106</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="D79" t="s">
         <v>106</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D81" t="s">
         <v>106</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D83" t="s">
         <v>106</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D84" t="s">
         <v>106</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D86" t="s">
         <v>106</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D87" t="s">
         <v>106</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D89" t="s">
         <v>106</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="D91" t="s">
         <v>106</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D93" t="s">
         <v>106</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
